--- a/Chapter01/Consolidating.xlsx
+++ b/Chapter01/Consolidating.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10909"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Curt\Desktop\Exercise Files\Chapter01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scarstruck/Git/excel_pivot_tables/Chapter01/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{858F3116-06C1-E648-B9D2-4CA5026BD0F7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23060" windowHeight="14120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SupportCalls" sheetId="1" r:id="rId1"/>
     <sheet name="OrderCalls" sheetId="2" r:id="rId2"/>
     <sheet name="ReturnCalls" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -309,6 +310,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -344,6 +362,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -519,30 +554,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" customWidth="1"/>
-    <col min="5" max="5" width="9.5" customWidth="1"/>
-    <col min="6" max="6" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.3984375" customWidth="1"/>
+    <col min="4" max="4" width="9.796875" customWidth="1"/>
+    <col min="5" max="5" width="9.3984375" customWidth="1"/>
+    <col min="6" max="6" width="11.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="10"/>
       <c r="B1" s="11"/>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
       <c r="E1" s="16"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B3" s="20" t="s">
         <v>4</v>
       </c>
@@ -559,7 +594,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B4" s="14" t="s">
         <v>0</v>
       </c>
@@ -576,7 +611,7 @@
         <v>15975</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B5" s="14" t="s">
         <v>1</v>
       </c>
@@ -593,7 +628,7 @@
         <v>19610</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B6" s="14" t="s">
         <v>2</v>
       </c>
@@ -610,7 +645,7 @@
         <v>18393</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B7" s="15" t="s">
         <v>3</v>
       </c>
@@ -629,31 +664,32 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="10.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="10"/>
       <c r="B1" s="11"/>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B3" s="20" t="s">
         <v>4</v>
       </c>
@@ -670,7 +706,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B4" s="14" t="s">
         <v>0</v>
       </c>
@@ -687,7 +723,7 @@
         <v>30244</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B5" s="14" t="s">
         <v>1</v>
       </c>
@@ -704,7 +740,7 @@
         <v>36336</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B6" s="14" t="s">
         <v>2</v>
       </c>
@@ -721,7 +757,7 @@
         <v>28824</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B7" s="15" t="s">
         <v>3</v>
       </c>
@@ -744,26 +780,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:F7"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="16"/>
       <c r="B3" s="20" t="s">
         <v>4</v>
@@ -781,7 +817,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B4" s="23" t="s">
         <v>0</v>
       </c>
@@ -798,7 +834,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B5" s="14" t="s">
         <v>1</v>
       </c>
@@ -815,7 +851,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B6" s="14" t="s">
         <v>2</v>
       </c>
@@ -832,7 +868,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B7" s="15" t="s">
         <v>3</v>
       </c>
